--- a/biology/Botanique/Bartsia/Bartsia.xlsx
+++ b/biology/Botanique/Bartsia/Bartsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bartsia (les bartsies) est un genre de plantes dicotylédones arctico-alpines regroupant une petite dizaine d'espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Bartsia a été donné par Carl von Linné en l'honneur de son ami Johann Bartsch 1709-1738 (latinisé en Johannes Bartsius), médecin et botaniste allemand de Königsberg (Prusse-Orientale), mort à l'âge de 28 ans au Surinam où Linné l'avait envoyé en mission. D’après Brown[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Bartsia a été donné par Carl von Linné en l'honneur de son ami Johann Bartsch 1709-1738 (latinisé en Johannes Bartsius), médecin et botaniste allemand de Königsberg (Prusse-Orientale), mort à l'âge de 28 ans au Surinam où Linné l'avait envoyé en mission. D’après Brown
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification classique
-En classification linnéenne, les bartsies étaient classées dans la famille des Scrophulariaceae.
-Classification phylogénétique
-En classification APG III, ce genre est désormais classé dans la famille des Orobanchaceae, tribu des Rhinantheae.
+          <t>Classification classique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification linnéenne, les bartsies étaient classées dans la famille des Scrophulariaceae.
 </t>
         </is>
       </c>
@@ -573,16 +590,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification APG III, ce genre est désormais classé dans la famille des Orobanchaceae, tribu des Rhinantheae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bartsia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bartsia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 nov. 2017)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 nov. 2017) :
 Bartsia alpina L., 1753 - Bartsie des Alpes
-Selon ITIS      (22 nov. 2017)[3] :
+Selon ITIS      (22 nov. 2017) :
 Bartsia alpina L.
-Selon BioLib                    (22 nov. 2017)[4] :
+Selon BioLib                    (22 nov. 2017) :
 Bartsia alba Molau
 Bartsia alpina L. - Bartsie des Alpes
 Bartsia laticrenata Benth.
